--- a/study guide/Flashcard.xlsx
+++ b/study guide/Flashcard.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c1oud\Documents\GitHub\ma-real-estate-test-notes\study guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF3D7D-1838-487F-835E-898C5D0F6CAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B826EB-3161-4CA9-8D38-CDA8DCF9796E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="75" windowWidth="17655" windowHeight="15075" xr2:uid="{17A926FB-40D8-4609-A81C-EA373FE2EC57}"/>
+    <workbookView xWindow="13140" yWindow="105" windowWidth="15660" windowHeight="11820" xr2:uid="{17A926FB-40D8-4609-A81C-EA373FE2EC57}"/>
   </bookViews>
   <sheets>
     <sheet name="Flashcard" sheetId="1" r:id="rId1"/>
-    <sheet name="Quiz" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flashcard!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Bequest</t>
   </si>
@@ -235,21 +235,6 @@
     <t>Punctual performance is required</t>
   </si>
   <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dominant tenement</t>
-  </si>
-  <si>
-    <t>The property with a right of way through another adjacent property is the:</t>
-  </si>
-  <si>
-    <t>The "dominant tenement" refers to the property with the right. The "servient tenement" is the property encumbered (or impacted) by the right.</t>
-  </si>
-  <si>
     <t>Encapsulation</t>
   </si>
   <si>
@@ -284,6 +269,37 @@
   </si>
   <si>
     <t xml:space="preserve"> the rights a spouse has to the deceased spouse's estate in lieu of what was left to them in the will. Dower rights are limited to 1/3 of the real property left by the deceased.</t>
+  </si>
+  <si>
+    <t>Reliction</t>
+  </si>
+  <si>
+    <t>Reliction is the addition of land by the sudden retreat of water. When a lake dries up, the water retreats, which adds much more land to the beach.</t>
+  </si>
+  <si>
+    <t>A contingency clause means making something reliant on something else. This clause can be found in real estate contracts when we want to express that in order for the sale of real estate to happen, something such as a buyer obtaining financing or reviewing condo documents, must happen.</t>
+  </si>
+  <si>
+    <t>Habendum Clause</t>
+  </si>
+  <si>
+    <t>The Habendum Clause, found in the property's deed, will give specific information about who will receive the property "after death."</t>
+  </si>
+  <si>
+    <t>Section 8</t>
+  </si>
+  <si>
+    <t>A federal program designed to provide renters with affordable housing via a voucher system that
+subsidizes rentals provided by private landlords.</t>
+  </si>
+  <si>
+    <t>Contingency Clause</t>
+  </si>
+  <si>
+    <t>Doctrine of Laches is a legal "use it or lose it" that states that an unreasonable delay in the assertion of your rights can result in a loss of those rights.</t>
+  </si>
+  <si>
+    <t>Doctrine of Laches</t>
   </si>
 </sst>
 </file>
@@ -344,17 +360,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -675,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252FEC59-FBE3-4099-B62B-D6761C4A7D04}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="2" max="2" width="110.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,101 +954,95 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{1046E6EC-58A2-48BA-A3DE-7D95D316C47A}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3B1591-D522-4ED8-A3FE-20A065632396}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
